--- a/th_UNet rewrites/savedstatistics/70epoch30firstImgLr1e-6SGDInertia0.9CrossEntro.xlsx
+++ b/th_UNet rewrites/savedstatistics/70epoch30firstImgLr1e-6SGDInertia0.9CrossEntro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Dev/EPFL MA1/Machine Learning/cs-433-project-2-ml_fools/th_UNet rewrites/savedstatistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B54F87C3-999A-7C41-9931-E789B7B5B3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9BFBE6-149F-AA4F-AD86-1F019A8818CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="70epoch30firstImgLr1e-6SGDInert" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>TP</t>
   </si>
   <si>
-    <t>FN</t>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,7 +896,7 @@
         <v>0.35961840512912902</v>
       </c>
       <c r="C2">
-        <v>0.64038159487086999</v>
+        <v>0.99306314320475597</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>0.80418553933903703</v>
       </c>
       <c r="C3">
-        <v>0.195814460660962</v>
+        <v>0.98428443697246104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>0.522771919153727</v>
       </c>
       <c r="C4">
-        <v>0.477228080846272</v>
+        <v>0.99197435218689201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>0.56050985707830903</v>
       </c>
       <c r="C5">
-        <v>0.43949014292168997</v>
+        <v>0.99212481214880999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>0.76046684276859799</v>
       </c>
       <c r="C6">
-        <v>0.23953315723140101</v>
+        <v>0.98584142540652597</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>0.81364190012180204</v>
       </c>
       <c r="C7">
-        <v>0.18635809987819699</v>
+        <v>0.98635872148263504</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>0.60555096987205903</v>
       </c>
       <c r="C8">
-        <v>0.39444903012794003</v>
+        <v>0.99482060179674303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>0.40696141032759497</v>
       </c>
       <c r="C9">
-        <v>0.59303858967240397</v>
+        <v>0.99328165126143297</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>0.35624637960996303</v>
       </c>
       <c r="C10">
-        <v>0.64375362039003603</v>
+        <v>0.99469234877798396</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>0.61467193195625702</v>
       </c>
       <c r="C11">
-        <v>0.38532806804374198</v>
+        <v>0.99296153024360601</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>0.539679358717434</v>
       </c>
       <c r="C12">
-        <v>0.460320641282565</v>
+        <v>0.99315661267103195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>0.52378478235769499</v>
       </c>
       <c r="C13">
-        <v>0.47621521764230401</v>
+        <v>0.98987543680801704</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>0.38791169343982701</v>
       </c>
       <c r="C14">
-        <v>0.61208830656017199</v>
+        <v>0.996036719809264</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>0.40555358669140401</v>
       </c>
       <c r="C15">
-        <v>0.59444641330859505</v>
+        <v>0.99036833393088397</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>0.63095740194010896</v>
       </c>
       <c r="C16">
-        <v>0.36904259805988998</v>
+        <v>0.99118577540942499</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>2.8554022196911499E-2</v>
       </c>
       <c r="C17">
-        <v>0.97144597780308795</v>
+        <v>0.98648530766833298</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>0.68590485735515105</v>
       </c>
       <c r="C18">
-        <v>0.314095142644848</v>
+        <v>0.98678675942712502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>0.71066256209333201</v>
       </c>
       <c r="C19">
-        <v>0.28933743790666699</v>
+        <v>0.98520532301080699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>0.81115548112842895</v>
       </c>
       <c r="C20">
-        <v>0.18884451887157</v>
+        <v>0.99235874598960006</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>0.66504875724026602</v>
       </c>
       <c r="C21">
-        <v>0.33495124275973298</v>
+        <v>0.98388652642695096</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>0.76654485441471099</v>
       </c>
       <c r="C22">
-        <v>0.23345514558528799</v>
+        <v>0.98524261141806402</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>0.71677759926554896</v>
       </c>
       <c r="C23">
-        <v>0.28322240073444999</v>
+        <v>0.99326477091177801</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>0.62653409973590102</v>
       </c>
       <c r="C24">
-        <v>0.37346590026409798</v>
+        <v>0.99162329048946696</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>0.71382030178326406</v>
       </c>
       <c r="C25">
-        <v>0.286179698216735</v>
+        <v>0.99250796804503405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>0.64601053057918101</v>
       </c>
       <c r="C26">
-        <v>0.35398946942081799</v>
+        <v>0.98932293932380899</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>0.52237191464254096</v>
       </c>
       <c r="C27">
-        <v>0.47762808535745799</v>
+        <v>0.98822461725030497</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>0.39121812370219999</v>
       </c>
       <c r="C28">
-        <v>0.60878187629779901</v>
+        <v>0.99278654428822799</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>0.55836368256119195</v>
       </c>
       <c r="C29">
-        <v>0.44163631743880699</v>
+        <v>0.98934597843226402</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>0.67098095814516501</v>
       </c>
       <c r="C30">
-        <v>0.32901904185483399</v>
+        <v>0.99006261249764005</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>0.65444730621317404</v>
       </c>
       <c r="C31">
-        <v>0.34555269378682502</v>
+        <v>0.99222153657523304</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>0.39961707277423503</v>
       </c>
       <c r="C32">
-        <v>0.60038292722576403</v>
+        <v>0.99156092157641396</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>0.46521345631703598</v>
       </c>
       <c r="C33">
-        <v>0.53478654368296397</v>
+        <v>0.98990071986332995</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>0.82398202752035898</v>
       </c>
       <c r="C34">
-        <v>0.17601797247963999</v>
+        <v>0.98340804532577897</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>0.70014906804451804</v>
       </c>
       <c r="C35">
-        <v>0.29985093195548101</v>
+        <v>0.98530648323056602</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>0.55477429540404599</v>
       </c>
       <c r="C36">
-        <v>0.44522570459595301</v>
+        <v>0.99473859641057005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>0.81020125979413105</v>
       </c>
       <c r="C37">
-        <v>0.18979874020586801</v>
+        <v>0.98515523916447201</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>0.78660837276157303</v>
       </c>
       <c r="C38">
-        <v>0.213391627238426</v>
+        <v>0.98365526476111698</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>0.75333982894879203</v>
       </c>
       <c r="C39">
-        <v>0.24666017105120699</v>
+        <v>0.98688242668273995</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>0.61374187558031501</v>
       </c>
       <c r="C40">
-        <v>0.38625812441968399</v>
+        <v>0.98960468344498698</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>0.61064403553299496</v>
       </c>
       <c r="C41">
-        <v>0.38935596446700499</v>
+        <v>0.992706410810823</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>0.68366141732283403</v>
       </c>
       <c r="C42">
-        <v>0.31633858267716503</v>
+        <v>0.99338805102984296</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>0.62769323489528395</v>
       </c>
       <c r="C43">
-        <v>0.372306765104716</v>
+        <v>0.99573523997989299</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>0.46767649445496301</v>
       </c>
       <c r="C44">
-        <v>0.53232350554503605</v>
+        <v>0.99513037914746005</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>4.9900199600798403E-2</v>
       </c>
       <c r="C45">
-        <v>0.95009980039920106</v>
+        <v>0.99992606292045405</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>0.46075899554834099</v>
       </c>
       <c r="C46">
-        <v>0.53924100445165801</v>
+        <v>0.98535760278505302</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>0.58270676691729295</v>
       </c>
       <c r="C47">
-        <v>0.41729323308270599</v>
+        <v>0.98833746806246203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>0.75106393631402302</v>
       </c>
       <c r="C48">
-        <v>0.24893606368597601</v>
+        <v>0.98286659558933598</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>0.362464541965626</v>
       </c>
       <c r="C49">
-        <v>0.63753545803437295</v>
+        <v>0.99122866164364798</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>0.54786602786690697</v>
       </c>
       <c r="C50">
-        <v>0.45213397213309298</v>
+        <v>0.98998253877098796</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>0.20391636919938799</v>
       </c>
       <c r="C51">
-        <v>0.79608363080061195</v>
+        <v>0.99761032440387198</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>0.74752262517090895</v>
       </c>
       <c r="C52">
-        <v>0.25247737482909</v>
+        <v>0.97985674114002996</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>0.72779851727220102</v>
       </c>
       <c r="C53">
-        <v>0.27220148272779798</v>
+        <v>0.989457606816594</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>0.226938851171304</v>
       </c>
       <c r="C54">
-        <v>0.77306114882869503</v>
+        <v>0.99629887870881995</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>0.71830110067781805</v>
       </c>
       <c r="C55">
-        <v>0.28169889932218101</v>
+        <v>0.98689963229356603</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>0.18274290754079001</v>
       </c>
       <c r="C56">
-        <v>0.81725709245920897</v>
+        <v>0.99920952546670305</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>0.79542203147353296</v>
       </c>
       <c r="C57">
-        <v>0.20457796852646601</v>
+        <v>0.97574714433420395</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>1.1192044474616001E-3</v>
       </c>
       <c r="C58">
-        <v>0.99888079555253795</v>
+        <v>0.99990651459707702</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>2.6361429066944098E-2</v>
       </c>
       <c r="C59">
-        <v>0.97363857093305495</v>
+        <v>0.99991818728954496</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>0.646823010623371</v>
       </c>
       <c r="C60">
-        <v>0.353176989376628</v>
+        <v>0.99582005988825395</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>9.5325389550870705E-4</v>
       </c>
       <c r="C61">
-        <v>0.99904674610449096</v>
+        <v>0.99997932384035004</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>0.75177678336404297</v>
       </c>
       <c r="C62">
-        <v>0.24822321663595601</v>
+        <v>0.99588074010763294</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>0.32785123347246797</v>
       </c>
       <c r="C63">
-        <v>0.67214876652753097</v>
+        <v>0.99403455879643798</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>9.2430676992255795E-2</v>
       </c>
       <c r="C64">
-        <v>0.90756932300774396</v>
+        <v>0.998562079708183</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>0.112363517844532</v>
       </c>
       <c r="C65">
-        <v>0.88763648215546698</v>
+        <v>0.99891928318200596</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>5.58182337448037E-2</v>
       </c>
       <c r="C66">
-        <v>0.94418176625519601</v>
+        <v>0.99955631314858995</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>0.39822290005470501</v>
       </c>
       <c r="C67">
-        <v>0.60177709994529405</v>
+        <v>0.99092043080318004</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>0.59588979628466299</v>
       </c>
       <c r="C68">
-        <v>0.40411020371533601</v>
+        <v>0.99048012991577705</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>0.77867540208369201</v>
       </c>
       <c r="C69">
-        <v>0.22132459791630699</v>
+        <v>0.97872708548508502</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>0.77703305238328102</v>
       </c>
       <c r="C70">
-        <v>0.22296694761671801</v>
+        <v>0.98279676320283005</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>0.69428058092528799</v>
       </c>
       <c r="C71">
-        <v>0.30571941907471101</v>
+        <v>0.99090810763001702</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>0.26907207444473702</v>
       </c>
       <c r="C72">
-        <v>0.73092792555526298</v>
+        <v>0.99593573179977501</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>5.0164938737040497E-2</v>
       </c>
       <c r="C73">
-        <v>0.94983506126295902</v>
+        <v>0.99928579564520004</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>0.76770505191926197</v>
       </c>
       <c r="C74">
-        <v>0.232294948080737</v>
+        <v>0.97729534004206797</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>0.79610174177495097</v>
       </c>
       <c r="C75">
-        <v>0.20389825822504801</v>
+        <v>0.99199966130532402</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>0.33842617152961901</v>
       </c>
       <c r="C76">
-        <v>0.66157382847038004</v>
+        <v>0.99601423706904502</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>0.76593005792748303</v>
       </c>
       <c r="C77">
-        <v>0.234069942072516</v>
+        <v>0.99413573428866597</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>0.51387110542040104</v>
       </c>
       <c r="C78">
-        <v>0.48612889457959801</v>
+        <v>0.99934700410490296</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>0.63818739674297797</v>
       </c>
       <c r="C79">
-        <v>0.36181260325702103</v>
+        <v>0.99007164801416403</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>0.212821989959674</v>
       </c>
       <c r="C80">
-        <v>0.78717801004032595</v>
+        <v>0.999414198248056</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>0.62367240972386095</v>
       </c>
       <c r="C81">
-        <v>0.37632759027613799</v>
+        <v>0.99073290828964899</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,7 +1776,7 @@
         <v>0.30486573793660399</v>
       </c>
       <c r="C82">
-        <v>0.69513426206339501</v>
+        <v>0.99893094008410199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>0.70704471524979295</v>
       </c>
       <c r="C83">
-        <v>0.29295528475020599</v>
+        <v>0.98492207910057805</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>0.49291285435728199</v>
       </c>
       <c r="C84">
-        <v>0.50708714564271695</v>
+        <v>0.98829036418217897</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>3.65204044781509E-2</v>
       </c>
       <c r="C85">
-        <v>0.96347959552184903</v>
+        <v>0.999830846154102</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>0.199219385265896</v>
       </c>
       <c r="C86">
-        <v>0.800780614734103</v>
+        <v>0.99936737015105803</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>0.53258330141708099</v>
       </c>
       <c r="C87">
-        <v>0.46741669858291801</v>
+        <v>0.98825549937869805</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>0.74043520072407698</v>
       </c>
       <c r="C88">
-        <v>0.25956479927592202</v>
+        <v>0.97792849801156501</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>0.71702477703145595</v>
       </c>
       <c r="C89">
-        <v>0.28297522296854299</v>
+        <v>0.98494321071952595</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>0.58161986640951002</v>
       </c>
       <c r="C90">
-        <v>0.41838013359048898</v>
+        <v>0.98910262993507303</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>0.79220688368622305</v>
       </c>
       <c r="C91">
-        <v>0.20779311631377601</v>
+        <v>0.97977169531628805</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="C92">
-        <v>0.44600000000000001</v>
+        <v>0.993989174362923</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>0.30337735187565701</v>
       </c>
       <c r="C93">
-        <v>0.69662264812434205</v>
+        <v>0.99909451338099198</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>0.18351254480286699</v>
       </c>
       <c r="C94">
-        <v>0.81648745519713195</v>
+        <v>0.99916934988512895</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>0.42170232776863298</v>
       </c>
       <c r="C95">
-        <v>0.57829767223136597</v>
+        <v>0.99530027140705801</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>0.75387847446670897</v>
       </c>
       <c r="C96">
-        <v>0.24612152553329</v>
+        <v>0.99160162547708897</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>1.57872870793518E-3</v>
       </c>
       <c r="C97">
-        <v>0.99842127129206404</v>
+        <v>0.99998412649070401</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
         <v>0.67619689817936601</v>
       </c>
       <c r="C98">
-        <v>0.32380310182063299</v>
+        <v>0.99444792798385795</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>1.9036905637519998E-2</v>
       </c>
       <c r="C99">
-        <v>0.98096309436247997</v>
+        <v>0.99980664798213303</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>7.9571041483799496E-2</v>
       </c>
       <c r="C100">
-        <v>0.92042895851619999</v>
+        <v>0.99780594225629804</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>0.53148761941899003</v>
       </c>
       <c r="C101">
-        <v>0.46851238058100902</v>
+        <v>0.75542117934427799</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>0.81243949661181003</v>
       </c>
       <c r="C102">
-        <v>0.187560503388189</v>
+        <v>0.98511082634128999</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>0.79792307349467395</v>
       </c>
       <c r="C103">
-        <v>0.20207692650532599</v>
+        <v>0.98576954235565295</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>0.53400868306801696</v>
       </c>
       <c r="C104">
-        <v>0.46599131693198198</v>
+        <v>0.99631673315079095</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>0.74126519932276402</v>
       </c>
       <c r="C105">
-        <v>0.25873480067723498</v>
+        <v>0.98741383412625205</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
         <v>0.54305727235269796</v>
       </c>
       <c r="C106">
-        <v>0.45694272764730098</v>
+        <v>0.99505426231254701</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>0.65142150803460996</v>
       </c>
       <c r="C107">
-        <v>0.34857849196538898</v>
+        <v>0.99812944190868003</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>0.67318132464712199</v>
       </c>
       <c r="C108">
-        <v>0.32681867535287701</v>
+        <v>0.988380106011992</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>0.83983983983983901</v>
       </c>
       <c r="C109">
-        <v>0.16016016016015999</v>
+        <v>0.99145793566304696</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>0.75659824046920798</v>
       </c>
       <c r="C110">
-        <v>0.24340175953079099</v>
+        <v>0.99748473796876203</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>0.62383177570093395</v>
       </c>
       <c r="C111">
-        <v>0.37616822429906499</v>
+        <v>0.998724123998322</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2106,7 +2106,7 @@
         <v>0.568754499640028</v>
       </c>
       <c r="C112">
-        <v>0.431245500359971</v>
+        <v>0.99101962859558501</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>0.75264270613107798</v>
       </c>
       <c r="C113">
-        <v>0.247357293868921</v>
+        <v>0.99354247511892702</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
         <v>0.65592861464004804</v>
       </c>
       <c r="C114">
-        <v>0.34407138535995102</v>
+        <v>0.99386010781713396</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>0.66847017448938095</v>
       </c>
       <c r="C115">
-        <v>0.33152982551061799</v>
+        <v>0.99154573288049297</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>0.59576579556731701</v>
       </c>
       <c r="C116">
-        <v>0.40423420443268199</v>
+        <v>0.99577555166270704</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
         <v>0.76007677543186103</v>
       </c>
       <c r="C117">
-        <v>0.239923224568138</v>
+        <v>0.98705039435850195</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>0.41534144059868999</v>
       </c>
       <c r="C118">
-        <v>0.58465855940130895</v>
+        <v>0.99824067999988397</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>0.71381578947368396</v>
       </c>
       <c r="C119">
-        <v>0.28618421052631499</v>
+        <v>0.99466708064099996</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>0.70819901892081205</v>
       </c>
       <c r="C120">
-        <v>0.29180098107918701</v>
+        <v>0.99208674132436603</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>0.76879745285329404</v>
       </c>
       <c r="C121">
-        <v>0.23120254714670499</v>
+        <v>0.98904589742413096</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>0.31531531531531498</v>
       </c>
       <c r="C122">
-        <v>0.68468468468468402</v>
+        <v>0.99258435777780596</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>0.77111383108935105</v>
       </c>
       <c r="C123">
-        <v>0.228886168910648</v>
+        <v>0.98592885525790397</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>0.45945945945945899</v>
       </c>
       <c r="C124">
-        <v>0.54054054054054002</v>
+        <v>0.99490404851783099</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
         <v>0.72872872872872796</v>
       </c>
       <c r="C125">
-        <v>0.27127127127127099</v>
+        <v>0.991507502965985</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>0.51795785099435998</v>
       </c>
       <c r="C126">
-        <v>0.48204214900563902</v>
+        <v>0.99873825377011105</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>0.50125039074710798</v>
       </c>
       <c r="C127">
-        <v>0.49874960925289102</v>
+        <v>0.99714756048986797</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>0.74564122433165403</v>
       </c>
       <c r="C128">
-        <v>0.25435877566834503</v>
+        <v>0.99601248582008794</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>0.65696759987417397</v>
       </c>
       <c r="C129">
-        <v>0.34303240012582498</v>
+        <v>0.99798843933845005</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>0.75468577728776098</v>
       </c>
       <c r="C130">
-        <v>0.24531422271223799</v>
+        <v>0.99080700735802196</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>0.74485039843632495</v>
       </c>
       <c r="C131">
-        <v>0.255149601563674</v>
+        <v>0.991279053876018</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>0.76979293544457905</v>
       </c>
       <c r="C132">
-        <v>0.23020706455542</v>
+        <v>0.99511035152174099</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>0.801200993128933</v>
       </c>
       <c r="C133">
-        <v>0.198799006871066</v>
+        <v>0.98791119049106801</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>0.82231786043652</v>
       </c>
       <c r="C134">
-        <v>0.177682139563479</v>
+        <v>0.995811603464414</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>0.76526315789473598</v>
       </c>
       <c r="C135">
-        <v>0.23473684210526299</v>
+        <v>0.99615951705620198</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>0.70618556701030899</v>
       </c>
       <c r="C136">
-        <v>0.29381443298969001</v>
+        <v>0.98934219038263405</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>0.78485831101085501</v>
       </c>
       <c r="C137">
-        <v>0.21514168898914399</v>
+        <v>0.98718702495620203</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>0.38911022576361198</v>
       </c>
       <c r="C138">
-        <v>0.61088977423638702</v>
+        <v>0.99763123130418896</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>0.67910447761194004</v>
       </c>
       <c r="C139">
-        <v>0.32089552238805902</v>
+        <v>0.99407109770654101</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>0.70446735395188997</v>
       </c>
       <c r="C140">
-        <v>0.29553264604810903</v>
+        <v>0.98718767906537597</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>0.56129807692307598</v>
       </c>
       <c r="C141">
-        <v>0.43870192307692302</v>
+        <v>0.992846845860477</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>0.69253294289897505</v>
       </c>
       <c r="C142">
-        <v>0.30746705710102401</v>
+        <v>0.98234459197398905</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>0.40606060606060601</v>
       </c>
       <c r="C143">
-        <v>0.59393939393939399</v>
+        <v>0.99781583885518399</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>0.72126789366053101</v>
       </c>
       <c r="C144">
-        <v>0.27873210633946799</v>
+        <v>0.98441142472754495</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>0.73862433862433796</v>
       </c>
       <c r="C145">
-        <v>0.26137566137566098</v>
+        <v>0.97907633594997201</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>0.70979899497487398</v>
       </c>
       <c r="C146">
-        <v>0.29020100502512503</v>
+        <v>0.97920929945050394</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>0.64422715306506195</v>
       </c>
       <c r="C147">
-        <v>0.35577284693493699</v>
+        <v>0.98675404336460903</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>0.17658843732112101</v>
       </c>
       <c r="C148">
-        <v>0.82341156267887805</v>
+        <v>0.997751127148089</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
         <v>0.60084861342627605</v>
       </c>
       <c r="C149">
-        <v>0.39915138657372301</v>
+        <v>0.99680981595092</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>0.75267888472023503</v>
       </c>
       <c r="C150">
-        <v>0.247321115279764</v>
+        <v>0.98483476194986397</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
         <v>0.16839999999999999</v>
       </c>
       <c r="C151">
-        <v>0.83160000000000001</v>
+        <v>0.99896443043673999</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>0.73558243157224701</v>
       </c>
       <c r="C152">
-        <v>0.26441756842775299</v>
+        <v>0.98979788693805204</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>0.698587819947043</v>
       </c>
       <c r="C153">
-        <v>0.301412180052956</v>
+        <v>0.98921620266180099</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
         <v>0.124938362919132</v>
       </c>
       <c r="C154">
-        <v>0.87506163708086704</v>
+        <v>0.99958081652668596</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>0.80249908610548004</v>
       </c>
       <c r="C155">
-        <v>0.19750091389451899</v>
+        <v>0.98706772222900896</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>0.221009549795361</v>
       </c>
       <c r="C156">
-        <v>0.77899045020463797</v>
+        <v>0.99967852023848403</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>2.9575272403824699E-2</v>
       </c>
       <c r="C157">
-        <v>0.97042472759617504</v>
+        <v>0.99992788745906103</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>0.61678832116788296</v>
       </c>
       <c r="C158">
-        <v>0.38321167883211599</v>
+        <v>0.99794607970188798</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>0.10849056603773501</v>
       </c>
       <c r="C159">
-        <v>0.89150943396226401</v>
+        <v>0.99390647623343797</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>0.46560846560846503</v>
       </c>
       <c r="C160">
-        <v>0.53439153439153397</v>
+        <v>0.98575700696720003</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>0.68746846089150504</v>
       </c>
       <c r="C161">
-        <v>0.31253153910849402</v>
+        <v>0.99177151932529195</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,7 +2656,7 @@
         <v>0.69476486246672498</v>
       </c>
       <c r="C162">
-        <v>0.30523513753327403</v>
+        <v>0.99691207438721496</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>0.61522078659662005</v>
       </c>
       <c r="C163">
-        <v>0.38477921340337901</v>
+        <v>0.99338530582915396</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>0.60349358478899295</v>
       </c>
       <c r="C164">
-        <v>0.39650641521100599</v>
+        <v>0.99669758722043</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,7 +2689,7 @@
         <v>0.56775520699408499</v>
       </c>
       <c r="C165">
-        <v>0.43224479300591401</v>
+        <v>0.99593595579658001</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>0.69011522134627001</v>
       </c>
       <c r="C166">
-        <v>0.30988477865372899</v>
+        <v>0.99733816302827905</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,7 +2711,7 @@
         <v>0.17080533644950799</v>
       </c>
       <c r="C167">
-        <v>0.82919466355049098</v>
+        <v>0.99813656495754699</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>0.124919923126201</v>
       </c>
       <c r="C168">
-        <v>0.87508007687379796</v>
+        <v>0.99828240551900205</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>0.45964701850582501</v>
       </c>
       <c r="C169">
-        <v>0.54035298149417399</v>
+        <v>0.993443085143211</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>0.69278425655976605</v>
       </c>
       <c r="C170">
-        <v>0.307215743440233</v>
+        <v>0.99088163390125195</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>8.4090533619692695E-2</v>
       </c>
       <c r="C171">
-        <v>0.91590946638030701</v>
+        <v>0.99921314524628002</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>0.72843618113379704</v>
       </c>
       <c r="C172">
-        <v>0.27156381886620201</v>
+        <v>0.98187071308842699</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,7 +2777,7 @@
         <v>0.84250764525993804</v>
       </c>
       <c r="C173">
-        <v>0.15749235474006101</v>
+        <v>0.99683952573780399</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>0.70264064293914996</v>
       </c>
       <c r="C174">
-        <v>0.29735935706084898</v>
+        <v>0.99486195062108496</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>0.51945525291828798</v>
       </c>
       <c r="C175">
-        <v>0.48054474708171202</v>
+        <v>0.99587347090209699</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
         <v>0.323843416370106</v>
       </c>
       <c r="C176">
-        <v>0.67615658362989295</v>
+        <v>0.99814740702745197</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>0.63049853372433995</v>
       </c>
       <c r="C177">
-        <v>0.369501466275659</v>
+        <v>0.99277440693584795</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>0.17628205128205099</v>
       </c>
       <c r="C178">
-        <v>0.82371794871794801</v>
+        <v>0.99949930792991104</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>3.1740683334456503E-2</v>
       </c>
       <c r="C179">
-        <v>0.96825931666554299</v>
+        <v>0.99943767079104096</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>0.108209780924983</v>
       </c>
       <c r="C180">
-        <v>0.89179021907501599</v>
+        <v>0.99979226907903296</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>0.190790438480715</v>
       </c>
       <c r="C181">
-        <v>0.80920956151928403</v>
+        <v>0.99868493198248298</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>0.58199559332703799</v>
       </c>
       <c r="C182">
-        <v>0.41800440667296102</v>
+        <v>0.99642990191356695</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,7 +2887,7 @@
         <v>0.32693911592994102</v>
       </c>
       <c r="C183">
-        <v>0.67306088407005804</v>
+        <v>0.99955109937763797</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
         <v>0.233261339092872</v>
       </c>
       <c r="C184">
-        <v>0.76673866090712695</v>
+        <v>0.99957712562360301</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>0.73032345494097906</v>
       </c>
       <c r="C185">
-        <v>0.26967654505902</v>
+        <v>0.96793320507384495</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>0.14537672214472699</v>
       </c>
       <c r="C186">
-        <v>0.85462327785527203</v>
+        <v>0.99902718375396804</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>0.66443012271563495</v>
       </c>
       <c r="C187">
-        <v>0.33556987728436399</v>
+        <v>0.98796450821445703</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>1.8776743015353599E-2</v>
       </c>
       <c r="C188">
-        <v>0.98122325698464596</v>
+        <v>0.99978763936555803</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>0.79792217308245805</v>
       </c>
       <c r="C189">
-        <v>0.202077826917541</v>
+        <v>0.97266472920185798</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>0.782117163412127</v>
       </c>
       <c r="C190">
-        <v>0.217882836587872</v>
+        <v>0.99069537254339901</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>0.38397790055248598</v>
       </c>
       <c r="C191">
-        <v>0.61602209944751296</v>
+        <v>0.99576720399876395</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>0.72921730675741303</v>
       </c>
       <c r="C192">
-        <v>0.27078269324258603</v>
+        <v>0.99498258815081397</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>0.72600732600732598</v>
       </c>
       <c r="C193">
-        <v>0.27399267399267402</v>
+        <v>0.98636055345624196</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>0.73933649289099501</v>
       </c>
       <c r="C194">
-        <v>0.26066350710900399</v>
+        <v>0.98723544258023899</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
         <v>4.08163265306122E-2</v>
       </c>
       <c r="C195">
-        <v>0.95918367346938704</v>
+        <v>0.99996932862724297</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>0.29731163777856301</v>
       </c>
       <c r="C196">
-        <v>0.70268836222143605</v>
+        <v>0.99911847755888905</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>3.5997559487492302E-2</v>
       </c>
       <c r="C197">
-        <v>0.96400244051250705</v>
+        <v>0.99996703492649497</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>0.67988525143435696</v>
       </c>
       <c r="C198">
-        <v>0.32011474856564198</v>
+        <v>0.98408912685594396</v>
       </c>
     </row>
   </sheetData>
